--- a/spreadsheet/deep learning.xlsx
+++ b/spreadsheet/deep learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aSSIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E39641-8BDC-43AE-8FA6-119B5D08E0C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED1435A-5E8D-4318-9033-1D00144A2DB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="175">
   <si>
     <t>나비야 악보 예측하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,7 +376,206 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4음절씩 데이터 구성</t>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>batch size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callbacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4음절씩 데이터 구성(50개 인스턴스 생성, 54-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epochs = 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 50문제를 한번에 10문제씩 풀어서 답안을 맞추어 보고 1000번 반복 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.1,0.1,0.1,0.1,0.1,0.1,0.1,0.1,0.1,0.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unhappyness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손실함수(cross-entropy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.01,0.01,0.01,0.01,0.01,0.01,0.99,0.01,0.01,0.01]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12지 선다문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,12 +598,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -478,8 +671,25 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +708,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -516,35 +732,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -553,26 +837,113 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -916,777 +1287,1083 @@
     <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" customWidth="1"/>
     <col min="5" max="5" width="65.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="13" customWidth="1"/>
+    <col min="6" max="6" width="18" style="11" customWidth="1"/>
     <col min="7" max="7" width="46" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="14.58203125" style="2" customWidth="1"/>
-    <col min="11" max="13" width="9.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.9140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.83203125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
+      <c r="F11" s="9"/>
+      <c r="H11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="41" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="4" t="s">
+      <c r="I14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
+      <c r="I15" s="5">
+        <f>(0-0.1)^2*11 + (1-0.1)^2</f>
+        <v>0.92</v>
+      </c>
+      <c r="J15" s="5">
+        <f>(0-0.01)^2*11 + (1-0.99)^2</f>
+        <v>1.2000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="4" t="s">
+      <c r="H21" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="4" t="s">
+      <c r="H22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="4" t="s">
+      <c r="H23" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="4" t="s">
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="4" t="s">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="4" t="s">
+    <row r="51" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="4" t="s">
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="4" t="s">
+    <row r="54" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="4" t="s">
+    <row r="55" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="4" t="s">
+    <row r="56" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="4" t="s">
+    <row r="57" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="4" t="s">
+    <row r="58" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="4" t="s">
+    <row r="59" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="4" t="s">
+    <row r="60" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="4" t="s">
+    <row r="61" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="4" t="s">
+    <row r="62" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="4" t="s">
+    <row r="63" spans="1:7" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1694,6 +2371,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A14:A63" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>